--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2662930.209893775</v>
+        <v>2660386.435227118</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445190.96012776</v>
+        <v>12445190.96012775</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.01554601693593</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5639921989988</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989988</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.5639921989988</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645086</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602294</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>123.7386628704432</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>100.2386850413124</v>
+        <v>164.844389903899</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597227</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404753</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704493</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328714</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="V4" t="n">
-        <v>231.8942521665401</v>
+        <v>74.39332753718951</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>215.0845781150033</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>79.24302978361767</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>46.61022226819622</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>225.2088824623611</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>43.96938074644493</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>17.28688718947221</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>277.5544178475184</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>253.9714406065379</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1184,19 +1184,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>139.6887432323031</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>30.09519610355542</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F13" t="n">
-        <v>105.3305008047038</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>233.3452377579656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>100.9410961977583</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>135.3738350208499</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>53.08838020946239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.1581728427126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.20549876776153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>832.7291480157659</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="C2" t="n">
-        <v>566.5028932693024</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="D2" t="n">
-        <v>300.2766385228388</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="E2" t="n">
-        <v>300.2766385228388</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="F2" t="n">
-        <v>34.05038377637532</v>
+        <v>553.537628868845</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591991</v>
+        <v>287.3113741223824</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J2" t="n">
-        <v>50.1902673255121</v>
+        <v>49.14994660701132</v>
       </c>
       <c r="K2" t="n">
-        <v>142.990686534944</v>
+        <v>141.9503658164421</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965776</v>
+        <v>293.9792536780741</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173884</v>
+        <v>494.8101216988834</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238172</v>
+        <v>703.5044515053106</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381143</v>
+        <v>887.2333280196062</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266323</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795995</v>
+        <v>899.9120886341439</v>
       </c>
       <c r="T2" t="n">
-        <v>839.815558133883</v>
+        <v>685.4716779720314</v>
       </c>
       <c r="U2" t="n">
-        <v>839.815558133883</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="V2" t="n">
-        <v>839.815558133883</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="W2" t="n">
-        <v>839.815558133883</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="X2" t="n">
-        <v>839.815558133883</v>
+        <v>560.4831296180485</v>
       </c>
       <c r="Y2" t="n">
-        <v>839.815558133883</v>
+        <v>560.4831296180485</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>491.0071162914132</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5540870102862</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="D3" t="n">
-        <v>167.6196773490349</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6196773490349</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K3" t="n">
-        <v>121.9892869236667</v>
+        <v>95.64621773957445</v>
       </c>
       <c r="L3" t="n">
-        <v>268.5684262397999</v>
+        <v>242.2253570557066</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4967785168087</v>
+        <v>432.6331671185492</v>
       </c>
       <c r="N3" t="n">
-        <v>739.3527616516418</v>
+        <v>642.489150253381</v>
       </c>
       <c r="O3" t="n">
-        <v>909.110192327168</v>
+        <v>812.2465809289059</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280455</v>
+        <v>1026.022430280452</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.255968795995</v>
+        <v>857.4437598260214</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.255968795995</v>
+        <v>857.4437598260214</v>
       </c>
       <c r="V3" t="n">
-        <v>953.0047717845687</v>
+        <v>690.9342750746082</v>
       </c>
       <c r="W3" t="n">
-        <v>698.7674150563671</v>
+        <v>436.6969183464066</v>
       </c>
       <c r="X3" t="n">
-        <v>698.7674150563671</v>
+        <v>228.8454181408738</v>
       </c>
       <c r="Y3" t="n">
-        <v>491.0071162914132</v>
+        <v>21.08511937591983</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7595987635666</v>
+        <v>358.5913140987264</v>
       </c>
       <c r="C4" t="n">
-        <v>159.7595987635666</v>
+        <v>189.6551311708195</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7595987635666</v>
+        <v>189.6551311708195</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7595987635666</v>
+        <v>189.6551311708195</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7595987635666</v>
+        <v>189.6551311708195</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7595987635666</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7595987635666</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="I4" t="n">
-        <v>36.35559920829115</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591991</v>
+        <v>21.08511937591983</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953618</v>
+        <v>126.3272391953612</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735313</v>
+        <v>316.5273535735301</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559566</v>
+        <v>527.4558292559549</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568312</v>
+        <v>738.803513656829</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005271</v>
+        <v>918.0010123005243</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.81474748583</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795995</v>
+        <v>925.4341625632146</v>
       </c>
       <c r="S4" t="n">
-        <v>847.4575864395597</v>
+        <v>925.4341625632146</v>
       </c>
       <c r="T4" t="n">
-        <v>621.9857680116245</v>
+        <v>699.9623441352794</v>
       </c>
       <c r="U4" t="n">
-        <v>621.9857680116245</v>
+        <v>433.7360893888168</v>
       </c>
       <c r="V4" t="n">
-        <v>387.7491496615839</v>
+        <v>358.5913140987264</v>
       </c>
       <c r="W4" t="n">
-        <v>387.7491496615839</v>
+        <v>358.5913140987264</v>
       </c>
       <c r="X4" t="n">
-        <v>159.7595987635666</v>
+        <v>358.5913140987264</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.7595987635666</v>
+        <v>358.5913140987264</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.167062227511</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="C5" t="n">
-        <v>634.167062227511</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="E5" t="n">
-        <v>367.789405660333</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>380.4820441686394</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>367.518231395195</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>101.1405748280171</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>900.5447187946886</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946889</v>
+        <v>646.8597007358173</v>
       </c>
       <c r="Y5" t="n">
-        <v>900.5447187946889</v>
+        <v>646.8597007358173</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>492.1842811376358</v>
+        <v>168.662304884369</v>
       </c>
       <c r="C6" t="n">
-        <v>317.7312518565088</v>
+        <v>168.662304884369</v>
       </c>
       <c r="D6" t="n">
-        <v>317.7312518565088</v>
+        <v>168.662304884369</v>
       </c>
       <c r="E6" t="n">
-        <v>158.4937968510533</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.09711040012049</v>
@@ -4644,52 +4644,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>611.5747118810656</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166544</v>
+        <v>376.4226036493229</v>
       </c>
       <c r="W6" t="n">
-        <v>660.3996181577038</v>
+        <v>376.4226036493229</v>
       </c>
       <c r="X6" t="n">
-        <v>660.3996181577038</v>
+        <v>376.4226036493229</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.3996181577038</v>
+        <v>168.662304884369</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.4144760322547</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C7" t="n">
-        <v>483.4782931043478</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D7" t="n">
-        <v>333.3616536920121</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>185.4485601096189</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>38.55861261170858</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
         <v>21.09711040012049</v>
@@ -4726,7 +4726,7 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551007</v>
@@ -4735,40 +4735,40 @@
         <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
         <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987215</v>
       </c>
       <c r="W7" t="n">
-        <v>1054.855520006025</v>
+        <v>434.2162990315437</v>
       </c>
       <c r="X7" t="n">
-        <v>1054.855520006025</v>
+        <v>434.2162990315437</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.0629408624944</v>
+        <v>213.4237198880136</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>723.4883455371869</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C8" t="n">
-        <v>723.4883455371869</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>723.4883455371869</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>723.4883455371869</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
         <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1500.22751757712</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y8" t="n">
-        <v>1110.088185601309</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.1991671823603</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="C10" t="n">
-        <v>517.2629842544534</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1463448421176</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>298.2016738772998</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1606.046932091108</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W10" t="n">
-        <v>1316.629762054147</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X10" t="n">
-        <v>1088.64021115613</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.8476320126</v>
+        <v>479.8501387075395</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>489.8360330454435</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>341.9229394630504</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
         <v>235.5284942057738</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487563</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510504</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1741.758820148922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1487.074331943035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.657161906075</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>969.6676110080573</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080573</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5735,37 +5735,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5835,16 +5835,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348531</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6014,10 +6014,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2393.338457106056</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2104.263230450254</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1849.578742244367</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207406</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768874</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944943</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,19 +7017,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>847.6442739835331</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.292738813773</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,25 +7433,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
         <v>740.5562989961525</v>
@@ -7500,16 +7500,16 @@
         <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.050829008585808</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.050829008592601</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518592</v>
+        <v>60.60994937518649</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789361941</v>
+        <v>2.12386678936241</v>
       </c>
       <c r="K3" t="n">
-        <v>26.60916079201154</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.23287092339899</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.84203171541412</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127281</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601769</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>35.91627445172514</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F13" t="n">
-        <v>40.09054721822741</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.83923663127851</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>117.6435571543365</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>164.3170701178259</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>15.00954930701842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>55.74112246243956</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.4264805093822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>790760.8697117324</v>
+        <v>790760.8697117326</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790726.0771009617</v>
+        <v>790726.0771009618</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
   </sheetData>
@@ -26314,40 +26314,40 @@
         <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520049</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163152</v>
+        <v>679693.2761163127</v>
       </c>
       <c r="C3" t="n">
-        <v>373.947538993519</v>
+        <v>373.9475389955543</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491493</v>
+        <v>68959.93717491462</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395568262</v>
+        <v>38.5763239559167</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756975</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077607</v>
+        <v>246846.0156077613</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
@@ -26424,37 +26424,37 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426731988</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731989</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426731985</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426732036</v>
-      </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673199</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731982</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731982</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731978</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731996</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426732006</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360386</v>
+        <v>63030.89693360375</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-332736.7727662527</v>
+        <v>-332736.7727662508</v>
       </c>
       <c r="C6" t="n">
-        <v>346657.7977499355</v>
+        <v>346657.7977499337</v>
       </c>
       <c r="D6" t="n">
-        <v>38449.27938377528</v>
+        <v>38449.27938377499</v>
       </c>
       <c r="E6" t="n">
-        <v>28991.99587682007</v>
+        <v>28957.25795138419</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759301</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.437501366</v>
+        <v>536442.6995759299</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013657</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="J6" t="n">
-        <v>467517.5003264511</v>
+        <v>467482.7624010158</v>
       </c>
       <c r="K6" t="n">
-        <v>536438.8611774105</v>
+        <v>536404.1232519742</v>
       </c>
       <c r="L6" t="n">
-        <v>441094.7913637965</v>
+        <v>441060.0534383605</v>
       </c>
       <c r="M6" t="n">
-        <v>403870.1437724391</v>
+        <v>403835.4058470034</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.4375013656</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.4375013658</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.4375013659</v>
+        <v>536442.6995759303</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472694</v>
+        <v>613.6975324726917</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989988</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472694</v>
+        <v>613.6975324726917</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967843854</v>
+        <v>0.3574812967863181</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989988</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025072941</v>
+        <v>0.1498878025081467</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989991</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025072372</v>
+        <v>0.1498878025081467</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989988</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025072941</v>
+        <v>0.1498878025081467</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375.7182956465446</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.7088995720087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168411</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.3120535427126</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.2716195574529</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396426</v>
+        <v>50.64435824064481</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587334</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602292</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>127.4096199766986</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928068</v>
+        <v>99.48674643928074</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225802</v>
+        <v>43.94827785225819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.2002655707237</v>
+        <v>18.20026557072401</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017448</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>132.5619021081128</v>
+        <v>67.95619724552623</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8843116769506</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704491</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>22.69467346577431</v>
       </c>
       <c r="V4" t="n">
-        <v>20.24339115728787</v>
+        <v>177.7443157866385</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.7914676267081</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776191</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>36.06358976327947</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>111.0348581872047</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>26.48610069855854</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.8625994354924</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5967798490744</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>105.1794238159621</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>152.9046051351736</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>7.562765922825804</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>222.0424472202726</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684195</v>
+        <v>2.467125758684186</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612452</v>
+        <v>25.26645167612443</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167253</v>
+        <v>95.11386581167217</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611229</v>
+        <v>209.3942148611221</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262249</v>
+        <v>313.8276482262237</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635565</v>
+        <v>389.330948163555</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745565</v>
+        <v>433.2056958745549</v>
       </c>
       <c r="N2" t="n">
-        <v>440.215416936418</v>
+        <v>440.2154169364164</v>
       </c>
       <c r="O2" t="n">
-        <v>415.682935173502</v>
+        <v>415.6829351735004</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059859</v>
+        <v>354.7757680059846</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.421826773108</v>
+        <v>266.4218267731071</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389462</v>
+        <v>154.9755884389456</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601615</v>
+        <v>56.21962822601594</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300864007</v>
+        <v>10.79984300864003</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947356</v>
+        <v>0.1973700606947348</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752587</v>
+        <v>1.320028654752582</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721578</v>
+        <v>12.74869779721573</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915706</v>
+        <v>45.44835499915689</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773048</v>
+        <v>124.7137598773043</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457281</v>
+        <v>213.1556797457273</v>
       </c>
       <c r="L3" t="n">
-        <v>286.614116462837</v>
+        <v>286.6141164628359</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976182</v>
+        <v>334.4651551976169</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235687</v>
+        <v>343.3174526235674</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419456</v>
+        <v>314.0683966419444</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641147</v>
+        <v>252.0675770641137</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592952</v>
+        <v>168.5004998592945</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191943</v>
+        <v>81.95756858191912</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209299</v>
+        <v>24.5189533020929</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550996</v>
+        <v>5.320641814550976</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424919</v>
+        <v>0.08684399044424887</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508137</v>
+        <v>1.106667681508132</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135985</v>
+        <v>9.839281750135948</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753561</v>
+        <v>33.28051536753549</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262525</v>
+        <v>78.24140508262496</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606726</v>
+        <v>128.5746633606721</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944006</v>
+        <v>164.5313023944</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840436</v>
+        <v>173.4751893840429</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166043</v>
+        <v>169.3503371166037</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735319</v>
+        <v>156.4224464735314</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707658</v>
+        <v>133.8464257707653</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337679</v>
+        <v>92.66832740337644</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672038</v>
+        <v>49.7598032067202</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410088</v>
+        <v>19.28619950410081</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625674</v>
+        <v>4.728489184625656</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0603636917186257</v>
+        <v>0.06036369171862548</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352336</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357562001</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,25 +32549,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>154.5219885631805</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,7 +32786,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724565</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
-        <v>200.3460366764704</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>466.5925882502527</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>614.59004755871</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>322.7581251332984</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>565.6398038246476</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>316.6133175811573</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.39913934302241</v>
+        <v>28.34831033443584</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124439</v>
+        <v>93.7377971812432</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935692</v>
+        <v>153.5645331935677</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472837</v>
+        <v>202.8594626472821</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398271</v>
+        <v>210.8023533398255</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518153</v>
+        <v>185.5847237518137</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507163</v>
+        <v>124.5936012593076</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865854</v>
+        <v>44.11613689865757</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>101.9234015633806</v>
+        <v>75.3142407713683</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829628</v>
+        <v>148.0597366829617</v>
       </c>
       <c r="M3" t="n">
-        <v>263.5639921989988</v>
+        <v>192.3311212755986</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402354</v>
+        <v>211.9757405402341</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975011</v>
+        <v>171.4721521975</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497844</v>
+        <v>215.9352013651976</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327364</v>
+        <v>28.51872577327302</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347897</v>
+        <v>106.3051715347892</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547168</v>
+        <v>192.1213276547161</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458842</v>
+        <v>213.0590663458835</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958329</v>
+        <v>213.4825094958323</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875716</v>
+        <v>181.007574387571</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356593</v>
+        <v>131.1249850356588</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682408</v>
+        <v>6.506284151682053</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530509</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>371.3409564478481</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132152</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010405</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728667</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>20.54758114885028</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>159.048271228012</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
-        <v>57.74979223202591</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>332.6181808359224</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>471.9938031142656</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>180.6240912112801</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>434.2980917413143</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>174.479283659139</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
